--- a/medicine/Enfance/Philippe_Munch/Philippe_Munch.xlsx
+++ b/medicine/Enfance/Philippe_Munch/Philippe_Munch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Munch, né le 1er mars 1959 à Colmar (Haut-Rhin), est un illustrateur français résidant à Strasbourg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Munch entre en 1980 dans l'atelier d'illustration créé par Claude Lapointe à l'École supérieure des arts décoratifs de Strasbourg. Ses études lui ont fait connaître John Howe[réf. nécessaire].
 Depuis 1984, il exerce dans l’illustration de livres principalement destinés à la jeunesse.
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Livre illustré
-2011 :
+          <t>Livre illustré</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2011 :
 Les Messagers du Temps 8 - le faucon du roi Philippe , Evelyne Brisou-Pellen , Folio Junior
 Les Messagers du Temps 9 - le chevalier de Saint Louis , Evelyne Brisou Pellen, Folio Junior
 Les Messagers du Temps 10 - le royaume d’Osiris , Evelyne Brisou-Pellen
@@ -678,9 +697,43 @@
 Le Robinson suisse – Casterman
 1976-1977 :
 Illustrations pour la série TV L’Alsace crayonnée de FR3 Alsace
-Illustrations pour Bayard Presse, coll. Okapi
-Bande dessinée
-Illustrateur et auteur pour Les Dernières Nouvelles d'Alsace, premier journal du Bas-Rhin.
+Illustrations pour Bayard Presse, coll. Okapi</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Philippe_Munch</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Munch</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Illustrateur et auteur pour Les Dernières Nouvelles d'Alsace, premier journal du Bas-Rhin.
 avant 1977 : dessins et courtes BD pour le journal L'Alsace
 1977-1978 : « La guerre des paysans », Les Dernières Nouvelles d'Alsace
 1978 :
